--- a/Datas/__tables__.xlsx
+++ b/Datas/__tables__.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\迅雷下载\luban_examples-main\MiniTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\BattleFlagRPG\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -102,15 +102,39 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>item.Tbitem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Item</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>item.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.TbItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr.TbActorBaseAttr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr/actor.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr.TbBaseAttr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr/base.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActorBaseAttr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseAttr</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -561,16 +585,44 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Datas/__tables__.xlsx
+++ b/Datas/__tables__.xlsx
@@ -122,19 +122,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>attr/base.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActorBaseAttr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseAttr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>attr.TbBaseAttr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr/base.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActorBaseAttr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseAttr</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +481,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -602,7 +602,7 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -613,16 +613,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
